--- a/webroot/assets/example_surveys/empty_survey.xlsx
+++ b/webroot/assets/example_surveys/empty_survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenarslan/formr_dev_docker/formr_app/formr/webroot/assets/example_surveys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABC3370-9688-DF4B-84C9-7ECFCF877C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFA6C44-EA94-6D48-9409-604B54C68688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>type</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>block_order</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -524,13 +527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -542,7 +545,7 @@
     <col min="7" max="7" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -605,6 +608,9 @@
       </c>
       <c r="U1" s="7" t="s">
         <v>21</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
